--- a/JRI_Project_Assignment/src/test/resources/testdata/JRI_TestCases_Practice.xlsx
+++ b/JRI_Project_Assignment/src/test/resources/testdata/JRI_TestCases_Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="23280" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18960" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="3" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCase!$A$1:$K$71</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:C6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="383">
   <si>
     <t>S.No</t>
   </si>
@@ -1433,18 +1434,6 @@
   </si>
   <si>
     <t>Bus page should display  search details with user given information</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
-    <t>Naresh</t>
-  </si>
-  <si>
-    <t>Rupa</t>
-  </si>
-  <si>
-    <t>Waheeda</t>
   </si>
 </sst>
 </file>
@@ -2131,6 +2120,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2172,10 +2165,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2391,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2425,12 +2414,10 @@
       <c r="B2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>383</v>
-      </c>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
@@ -2439,7 +2426,7 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="108"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4">
@@ -2449,7 +2436,7 @@
       <c r="B4" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4">
@@ -2459,10 +2446,8 @@
       <c r="B5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="17" t="s">
-        <v>384</v>
-      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="17" t="s">
@@ -2471,7 +2456,7 @@
       <c r="B6" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="109"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4">
@@ -2481,7 +2466,7 @@
       <c r="B7" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="109"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4">
@@ -2491,10 +2476,8 @@
       <c r="B8" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="17" t="s">
-        <v>385</v>
-      </c>
+      <c r="C8" s="93"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="17" t="s">
@@ -2503,7 +2486,7 @@
       <c r="B9" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="110"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4">
@@ -2513,7 +2496,7 @@
       <c r="B10" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="110"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4">
@@ -2523,10 +2506,8 @@
       <c r="B11" s="90" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="17" t="s">
-        <v>386</v>
-      </c>
+      <c r="C11" s="94"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="17" t="s">
@@ -2535,7 +2516,7 @@
       <c r="B12" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="111"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
@@ -2545,7 +2526,7 @@
       <c r="B13" s="90" t="s">
         <v>372</v>
       </c>
-      <c r="C13" s="111"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="17"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3538,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView topLeftCell="C69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C77" sqref="A77:XFD77"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25"/>
@@ -3610,13 +3591,13 @@
       <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="22"/>
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
@@ -4013,13 +3994,13 @@
       <c r="A13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="22"/>
       <c r="H13" s="32"/>
       <c r="I13" s="24"/>
@@ -4424,13 +4405,13 @@
       <c r="A24" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="41"/>
       <c r="H24" s="42"/>
       <c r="I24" s="43"/>
@@ -4634,13 +4615,13 @@
       <c r="A30" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="100"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="104"/>
       <c r="G30" s="51"/>
       <c r="H30" s="42"/>
       <c r="I30" s="43"/>
@@ -4777,13 +4758,13 @@
       <c r="A34" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="97"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="101"/>
       <c r="G34" s="41"/>
       <c r="H34" s="42"/>
       <c r="I34" s="43"/>
@@ -4919,13 +4900,13 @@
       <c r="A38" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="97"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="101"/>
       <c r="G38" s="41"/>
       <c r="H38" s="42"/>
       <c r="I38" s="43"/>
@@ -5172,13 +5153,13 @@
       <c r="A45" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="97"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="101"/>
       <c r="G45" s="41"/>
       <c r="H45" s="32"/>
       <c r="I45" s="24"/>
@@ -5538,13 +5519,13 @@
       <c r="A55" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="97"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="101"/>
       <c r="G55" s="41"/>
       <c r="H55" s="32"/>
       <c r="I55" s="24"/>
@@ -5915,18 +5896,18 @@
       <c r="A66" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="95" t="s">
         <v>364</v>
       </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
@@ -6016,18 +5997,18 @@
       <c r="A69" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="91" t="s">
+      <c r="B69" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
-      <c r="J69" s="91"/>
-      <c r="K69" s="91"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="95"/>
+      <c r="J69" s="95"/>
+      <c r="K69" s="95"/>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
@@ -6117,18 +6098,18 @@
       <c r="A72" s="88" t="s">
         <v>373</v>
       </c>
-      <c r="B72" s="91" t="s">
+      <c r="B72" s="95" t="s">
         <v>372</v>
       </c>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="91"/>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="95"/>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
@@ -31416,7 +31397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="145" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
@@ -31439,14 +31420,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="107" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="B3" s="5" t="s">
@@ -31589,14 +31570,14 @@
       <c r="G10" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="B13" s="5" t="s">
@@ -31844,14 +31825,14 @@
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="28" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="111"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="8" t="s">
